--- a/Impedance_Potential_Board/Impedance_Potential_BOM.xlsx
+++ b/Impedance_Potential_Board/Impedance_Potential_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uutzi\Documents\GitHub\Projects Playground\BioMedicalSensorBoard\Impedance_Potential_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF7F319-C00F-4B51-84BF-A70B6C195FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC56D82-6883-4879-B94D-D482CF18708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impedance_Potential_BOM_values" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>C11, C13, C17</t>
   </si>
@@ -196,7 +196,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -205,7 +205,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Qty</t>
     </r>
@@ -217,7 +217,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -226,7 +226,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Designator</t>
     </r>
@@ -241,7 +241,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -250,7 +250,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Mfg Part #</t>
     </r>
@@ -501,13 +501,28 @@
   </si>
   <si>
     <t xml:space="preserve">Generic Header </t>
+  </si>
+  <si>
+    <t>R19, R20, R21, R22, R23</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>C95177</t>
+  </si>
+  <si>
+    <t>0 100mW Resistor</t>
+  </si>
+  <si>
+    <t>0Î© resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,14 +661,14 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1435,14 +1450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" bestFit="1" customWidth="1"/>
@@ -1456,7 +1471,7 @@
     <col min="10" max="10" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1683,7 +1698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1779,27 +1794,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1">
         <v>603</v>
@@ -1808,30 +1823,30 @@
         <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" s="1">
         <v>603</v>
@@ -1840,15 +1855,15 @@
         <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1857,13 +1872,13 @@
         <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H13" s="1">
         <v>603</v>
@@ -1872,30 +1887,30 @@
         <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14" s="1">
         <v>603</v>
@@ -1904,15 +1919,15 @@
         <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1921,13 +1936,13 @@
         <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="H15" s="1">
         <v>603</v>
@@ -1936,30 +1951,30 @@
         <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1">
         <v>603</v>
@@ -1968,216 +1983,216 @@
         <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="H17" s="1">
+        <v>603</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>132</v>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>129</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
@@ -2189,7 +2204,7 @@
         <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>46</v>
@@ -2198,156 +2213,194 @@
         <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.2" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>137</v>
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_Diodes-Incorporated-AP2112K-1-8TRG1_C176944.html"/>
-    <hyperlink ref="F25" r:id="rId2" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_Diodes-Incorporated-AP2112K-3-3TRG1_C51118.html"/>
-    <hyperlink ref="E20" r:id="rId3" display="https://www.lcsc.com/product-detail/Electrostatic-and-Surge-Protection-TVS-span-style-background-color-ff0-ESD-span_Leiditech-ESD7551N2T5G_C5123457.html"/>
-    <hyperlink ref="F20" r:id="rId4" display="https://www.lcsc.com/product-detail/Electrostatic-and-Surge-Protection-TVS-span-style-background-color-ff0-ESD-span_Leiditech-ESD7551N2T5G_C5123457.html"/>
-    <hyperlink ref="F21" r:id="rId5" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C190KGKT_C125094.html"/>
-    <hyperlink ref="E21" r:id="rId6" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C190KGKT_C125094.html"/>
-    <hyperlink ref="E16" r:id="rId7" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-0751KL_C107231.html"/>
-    <hyperlink ref="F16" r:id="rId8" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-0751KL_C107231.html"/>
-    <hyperlink ref="E14" r:id="rId9" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-071KL_C22548.html"/>
-    <hyperlink ref="F14" r:id="rId10" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-071KL_C22548.html"/>
-    <hyperlink ref="E13" r:id="rId11" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-07100KL_C14675.html"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-07100KL_C14675.html"/>
-    <hyperlink ref="E12" r:id="rId13" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-0710RL_C109317.html"/>
-    <hyperlink ref="F12" r:id="rId14" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-0710RL_C109317.html"/>
-    <hyperlink ref="F11" r:id="rId15" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-07100RL_C110091.html"/>
-    <hyperlink ref="E11" r:id="rId16" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-07100RL_C110091.html"/>
-    <hyperlink ref="D11" r:id="rId17" display="https://www.lcsc.com/brand-detail/396.html"/>
-    <hyperlink ref="D12" r:id="rId18" display="https://www.lcsc.com/brand-detail/396.html"/>
-    <hyperlink ref="D13" r:id="rId19" display="https://www.lcsc.com/brand-detail/396.html"/>
-    <hyperlink ref="D14" r:id="rId20" display="https://www.lcsc.com/brand-detail/396.html"/>
-    <hyperlink ref="D16" r:id="rId21" display="https://www.lcsc.com/brand-detail/396.html"/>
-    <hyperlink ref="E5" r:id="rId22" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A105KB8NNNC_C15849.html"/>
-    <hyperlink ref="D5" r:id="rId23" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="F5" r:id="rId24" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A105KB8NNNC_C15849.html"/>
-    <hyperlink ref="E4" r:id="rId25" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B102KB8NNNC_C1588.html"/>
-    <hyperlink ref="D4" r:id="rId26" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="F4" r:id="rId27" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B102KB8NNNC_C1588.html"/>
-    <hyperlink ref="E3" r:id="rId28" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B224KA8NNNC_C21120.html"/>
-    <hyperlink ref="D3" r:id="rId29" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="F3" r:id="rId30" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B224KA8NNNC_C21120.html"/>
-    <hyperlink ref="E2" r:id="rId31" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B104KB8NNNC_C1591.html"/>
-    <hyperlink ref="F2" r:id="rId32" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B104KB8NNNC_C1591.html"/>
-    <hyperlink ref="D2" r:id="rId33" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="E6" r:id="rId34" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C100JB8NNNC_C1634.html"/>
-    <hyperlink ref="F6" r:id="rId35" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C100JB8NNNC_C1634.html"/>
-    <hyperlink ref="D6" r:id="rId36" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="E7" r:id="rId37" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A106MA8NRNC_C96446.html"/>
-    <hyperlink ref="F7" r:id="rId38" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A106MA8NRNC_C96446.html"/>
-    <hyperlink ref="D7" r:id="rId39" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="E8" r:id="rId40" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B222KB8NNNC_C16033.html"/>
-    <hyperlink ref="F8" r:id="rId41" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B222KB8NNNC_C16033.html"/>
-    <hyperlink ref="D8" r:id="rId42" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="E9" r:id="rId43" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B473KB8NNNC_C1622.html"/>
-    <hyperlink ref="F9" r:id="rId44" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B473KB8NNNC_C1622.html"/>
-    <hyperlink ref="D9" r:id="rId45" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="E10" r:id="rId46" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C470JB8NNNC_C1671.html"/>
-    <hyperlink ref="D10" r:id="rId47" display="https://www.lcsc.com/brand-detail/254.html"/>
-    <hyperlink ref="F10" r:id="rId48" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C470JB8NNNC_C1671.html"/>
-    <hyperlink ref="E15" r:id="rId49" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0603BRE07324KL_C861836.html"/>
-    <hyperlink ref="F15" r:id="rId50" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0603BRE07324KL_C861836.html"/>
-    <hyperlink ref="D15" r:id="rId51" display="https://www.lcsc.com/brand-detail/396.html"/>
-    <hyperlink ref="D18" r:id="rId52" display="https://www.lcsc.com/brand-detail/15740.html"/>
-    <hyperlink ref="E18" r:id="rId53" display="https://www.lcsc.com/product-detail/Audio-Connectors_CUI-Devices-SJ-3523-SMT-TR_C4991872.html"/>
-    <hyperlink ref="F18" r:id="rId54" display="https://www.lcsc.com/product-detail/Audio-Connectors_CUI-Devices-SJ-3523-SMT-TR_C4991872.html"/>
-    <hyperlink ref="K18" r:id="rId55"/>
+    <hyperlink ref="E26" r:id="rId1" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_Diodes-Incorporated-AP2112K-1-8TRG1_C176944.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F26" r:id="rId2" display="https://www.lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_Diodes-Incorporated-AP2112K-3-3TRG1_C51118.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E21" r:id="rId3" display="https://www.lcsc.com/product-detail/Electrostatic-and-Surge-Protection-TVS-span-style-background-color-ff0-ESD-span_Leiditech-ESD7551N2T5G_C5123457.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F21" r:id="rId4" display="https://www.lcsc.com/product-detail/Electrostatic-and-Surge-Protection-TVS-span-style-background-color-ff0-ESD-span_Leiditech-ESD7551N2T5G_C5123457.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F22" r:id="rId5" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C190KGKT_C125094.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E22" r:id="rId6" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Lite-On-LTST-C190KGKT_C125094.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E17" r:id="rId7" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-0751KL_C107231.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F17" r:id="rId8" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-0751KL_C107231.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E15" r:id="rId9" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-071KL_C22548.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F15" r:id="rId10" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-071KL_C22548.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-07100KL_C14675.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId12" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603FR-07100KL_C14675.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-0710RL_C109317.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F13" r:id="rId14" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-0710RL_C109317.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F12" r:id="rId15" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-07100RL_C110091.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E12" r:id="rId16" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-07100RL_C110091.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D12" r:id="rId17" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D13" r:id="rId18" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D14" r:id="rId19" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D15" r:id="rId20" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D17" r:id="rId21" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E5" r:id="rId22" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A105KB8NNNC_C15849.html" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D5" r:id="rId23" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F5" r:id="rId24" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A105KB8NNNC_C15849.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E4" r:id="rId25" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B102KB8NNNC_C1588.html" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D4" r:id="rId26" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F4" r:id="rId27" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B102KB8NNNC_C1588.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E3" r:id="rId28" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B224KA8NNNC_C21120.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D3" r:id="rId29" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F3" r:id="rId30" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B224KA8NNNC_C21120.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E2" r:id="rId31" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B104KB8NNNC_C1591.html" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F2" r:id="rId32" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B104KB8NNNC_C1591.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D2" r:id="rId33" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E6" r:id="rId34" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C100JB8NNNC_C1634.html" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F6" r:id="rId35" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C100JB8NNNC_C1634.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D6" r:id="rId36" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E7" r:id="rId37" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A106MA8NRNC_C96446.html" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F7" r:id="rId38" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A106MA8NRNC_C96446.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D7" r:id="rId39" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E8" r:id="rId40" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B222KB8NNNC_C16033.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F8" r:id="rId41" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B222KB8NNNC_C16033.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D8" r:id="rId42" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E9" r:id="rId43" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B473KB8NNNC_C1622.html" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F9" r:id="rId44" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10B473KB8NNNC_C1622.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D9" r:id="rId45" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E10" r:id="rId46" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C470JB8NNNC_C1671.html" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D10" r:id="rId47" display="https://www.lcsc.com/brand-detail/254.html" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F10" r:id="rId48" display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10C470JB8NNNC_C1671.html" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E16" r:id="rId49" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0603BRE07324KL_C861836.html" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F16" r:id="rId50" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0603BRE07324KL_C861836.html" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D16" r:id="rId51" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D19" r:id="rId52" display="https://www.lcsc.com/brand-detail/15740.html" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E19" r:id="rId53" display="https://www.lcsc.com/product-detail/Audio-Connectors_CUI-Devices-SJ-3523-SMT-TR_C4991872.html" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F19" r:id="rId54" display="https://www.lcsc.com/product-detail/Audio-Connectors_CUI-Devices-SJ-3523-SMT-TR_C4991872.html" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K19" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E11" r:id="rId56" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-070RL_C95177.html" xr:uid="{47FBFEB7-29C9-4B5C-9698-EED431C7A695}"/>
+    <hyperlink ref="F11" r:id="rId57" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0603JR-070RL_C95177.html" xr:uid="{2E00A72F-614E-4D93-8008-128036DB792F}"/>
+    <hyperlink ref="D11" r:id="rId58" display="https://www.lcsc.com/brand-detail/396.html" xr:uid="{66932E99-9FD1-4F1C-AEFB-424450BC608E}"/>
+    <hyperlink ref="D26" r:id="rId59" display="https://www.lcsc.com/brand-detail/296.html" xr:uid="{1AC26C7E-9BF5-44E5-B577-4775520BB4B9}"/>
+    <hyperlink ref="D22" r:id="rId60" display="https://www.lcsc.com/brand-detail/68.html" xr:uid="{1CB60F75-77A5-4B40-87CD-845A0DB83ABC}"/>
+    <hyperlink ref="D21" r:id="rId61" xr:uid="{43CF47EC-E36D-46E4-8907-38062936F9C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId56"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>
 </worksheet>
 </file>
--- a/Impedance_Potential_Board/Impedance_Potential_BOM.xlsx
+++ b/Impedance_Potential_Board/Impedance_Potential_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">1nF Ceramic Capacitor &gt;= 25V</t>
   </si>
   <si>
-    <t xml:space="preserve">C22, C23, C24</t>
+    <t xml:space="preserve">C22, C23</t>
   </si>
   <si>
     <t xml:space="preserve">CL10B473KB8NNNC</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">47nF Ceramic Capacitor &gt;=25V</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R3</t>
+    <t xml:space="preserve">R1, R2</t>
   </si>
   <si>
     <t xml:space="preserve">YAGEO</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">100 100mW Resistor</t>
   </si>
   <si>
-    <t xml:space="preserve">R19, R20, R21, R22, R23</t>
+    <t xml:space="preserve">R19, R20, R21, R22</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603JR-070RL</t>
@@ -256,6 +256,87 @@
     <t xml:space="preserve">0 100mW Resistor</t>
   </si>
   <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603BRD07200KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C728585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200k Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, D3, D4, D5, D6, D7, D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onsemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESD7551N2T5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5123457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/ProductDetail/onsemi/ESD7551N2T5G?qs=5aG0NVq1C4x8NutXGbtG6w%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESD7551N2T5G, Protection Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XINGLIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XL-1608UBC-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C965807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Devices/Maxim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX30001GCWV+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Analog-Devices-Maxim-Integrated/MAX30001GCWV%2b?qs=Rp5uXu7WBW%2FLfomdQH9F5g%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGA30C50P6X5_293X274X69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2112K-1.8TRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C176944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Diodes-Incorporated/AP2112K-1.8TRG1?qs=x6A8l6qLYDBx1xhw8AX2cw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2112K-1.8V V_REG_LDO SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRV, ECG, IMPEDANCE</t>
   </si>
   <si>
@@ -275,75 +356,6 @@
   </si>
   <si>
     <t xml:space="preserve">CUI_SJ-3523-SMT-TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2, D3, D4, D5, D6, D7, D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onsemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD7551N2T5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5123457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.com/ProductDetail/onsemi/ESD7551N2T5G?qs=5aG0NVq1C4x8NutXGbtG6w%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD7551N2T5G, Protection Diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XINGLIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XL-1608UBC-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C965807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Devices/Maxim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX30001GCWV+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Analog-Devices-Maxim-Integrated/MAX30001GCWV%2b?qs=Rp5uXu7WBW%2FLfomdQH9F5g%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGA30C50P6X5_293X274X69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes Incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2112K-1.8TRG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C176944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Diodes-Incorporated/AP2112K-1.8TRG1?qs=x6A8l6qLYDBx1xhw8AX2cw%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2112K-1.8V V_REG_LDO SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-25</t>
   </si>
 </sst>
 </file>
@@ -354,7 +366,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,9 +405,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -473,11 +500,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,15 +529,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,12 +565,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -623,22 +662,21 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,22 +718,22 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
@@ -714,22 +752,22 @@
         <f aca="false">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -748,22 +786,22 @@
         <f aca="false">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
@@ -782,22 +820,22 @@
         <f aca="false">A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -816,22 +854,22 @@
         <f aca="false">A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
@@ -850,22 +888,22 @@
         <f aca="false">A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
@@ -884,22 +922,22 @@
         <f aca="false">A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
@@ -918,22 +956,22 @@
         <f aca="false">A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>44</v>
       </c>
@@ -952,22 +990,22 @@
         <f aca="false">A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
@@ -986,22 +1024,22 @@
         <f aca="false">A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1020,22 +1058,22 @@
         <f aca="false">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1054,22 +1092,22 @@
         <f aca="false">A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1088,22 +1126,22 @@
         <f aca="false">A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1122,22 +1160,22 @@
         <f aca="false">A14+1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>69</v>
       </c>
@@ -1156,22 +1194,22 @@
         <f aca="false">A15+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="1" t="s">
         <v>73</v>
       </c>
@@ -1190,22 +1228,22 @@
         <f aca="false">A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
@@ -1224,35 +1262,33 @@
         <f aca="false">A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>84</v>
+      <c r="I18" s="1" t="n">
+        <v>603</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1.01</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,29 +1296,29 @@
         <f aca="false">A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>85</v>
+      <c r="B19" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="H19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>16</v>
@@ -1296,32 +1332,32 @@
         <f aca="false">A19+1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>91</v>
+      <c r="B20" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>603</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="11" t="n">
+      <c r="I20" s="10" t="n">
+        <v>603</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="12" t="n">
         <v>0.0034</v>
       </c>
     </row>
@@ -1330,27 +1366,27 @@
         <f aca="false">A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>96</v>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>16</v>
@@ -1364,54 +1400,90 @@
         <f aca="false">A21+1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>101</v>
+      <c r="B22" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="H22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="I22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="C23" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>16</v>
+      <c r="F23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1463,8 +1535,8 @@
     <hyperlink ref="D17" r:id="rId46" display="YAGEO"/>
     <hyperlink ref="E17" r:id="rId47" display="RC0603JR-070RL"/>
     <hyperlink ref="F17" r:id="rId48" display="C95177"/>
-    <hyperlink ref="D18" r:id="rId49" display="CUI Devices"/>
-    <hyperlink ref="E18" r:id="rId50" display="SJ-3523-SMT-TR"/>
+    <hyperlink ref="D18" r:id="rId49" display="YAGEO"/>
+    <hyperlink ref="F18" r:id="rId50" display="C728585"/>
     <hyperlink ref="D19" r:id="rId51" display="onsemi"/>
     <hyperlink ref="E19" r:id="rId52" display="ESD7551N2T5G"/>
     <hyperlink ref="F19" r:id="rId53" display="C5123457"/>
@@ -1473,6 +1545,8 @@
     <hyperlink ref="D22" r:id="rId56" display="Diodes Incorporated"/>
     <hyperlink ref="E22" r:id="rId57" display="AP2112K-1.8TRG1"/>
     <hyperlink ref="F22" r:id="rId58" display="C176944"/>
+    <hyperlink ref="D23" r:id="rId59" display="CUI Devices"/>
+    <hyperlink ref="E23" r:id="rId60" display="SJ-3523-SMT-TR"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
